--- a/docs/Diagramas/Casos de prueba.xlsx
+++ b/docs/Diagramas/Casos de prueba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,125 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="37">
+  <si>
+    <t>ID caso de prueba</t>
+  </si>
+  <si>
+    <t>Nombre del caso</t>
+  </si>
+  <si>
+    <t>Precondiciones</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>Objetivo</t>
+  </si>
+  <si>
+    <t>Acciones</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Revisión Sistemática</t>
+  </si>
+  <si>
+    <t>Andrés Filoso</t>
+  </si>
+  <si>
+    <t>Resultado obtenido</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>Seguimiento</t>
+  </si>
+  <si>
+    <t>PRS_0001</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
+  </si>
+  <si>
+    <t>No aplica</t>
+  </si>
+  <si>
+    <t>Salida esperada</t>
+  </si>
+  <si>
+    <t>Salida obtenida</t>
+  </si>
+  <si>
+    <t>PRS_0002</t>
+  </si>
+  <si>
+    <t>PRS_0003</t>
+  </si>
+  <si>
+    <t>PRS_0004</t>
+  </si>
+  <si>
+    <t>Caso de prueba 1</t>
+  </si>
+  <si>
+    <t>Caso de prueba 2</t>
+  </si>
+  <si>
+    <t>Caso de prueba 3</t>
+  </si>
+  <si>
+    <t>Caso de prueba 4</t>
+  </si>
+  <si>
+    <t>Caso de prueba 5</t>
+  </si>
+  <si>
+    <t>Caso de prueba 6</t>
+  </si>
+  <si>
+    <t>PRS_0005</t>
+  </si>
+  <si>
+    <t>PRS_0006</t>
+  </si>
+  <si>
+    <t>Caso de prueba 7</t>
+  </si>
+  <si>
+    <t>Caso de prueba 8</t>
+  </si>
+  <si>
+    <t>PRS_0007</t>
+  </si>
+  <si>
+    <t>PRS_0008</t>
+  </si>
+  <si>
+    <t>Caso de prueba 9</t>
+  </si>
+  <si>
+    <t>PRS_0009</t>
+  </si>
+  <si>
+    <t>Caso de prueba 10</t>
+  </si>
+  <si>
+    <t>PRS_0010</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +144,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,12 +200,202 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -69,7 +414,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +459,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +494,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +676,1710 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.77734375" style="4" customWidth="1"/>
+    <col min="2" max="4" width="16.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="19" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.77734375" style="4" customWidth="1"/>
+    <col min="9" max="11" width="16.33203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="14"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="28"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="15"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="9"/>
+      <c r="H4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="23"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="H5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="H6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="H7" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="H8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="H10" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="H14" s="6">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="H15" s="6">
+        <v>3</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="H16" s="6">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="H17" s="6">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="H18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="10"/>
+      <c r="H19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="10"/>
+      <c r="H20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="14"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="28"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="15"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="29"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="9"/>
+      <c r="H25" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="23"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="9"/>
+      <c r="H26" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="21"/>
+      <c r="J26" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="23"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="9"/>
+      <c r="H27" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="21"/>
+      <c r="J27" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="23"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="H28" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="23"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="H29" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="H31" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="H34" s="6">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="H35" s="6">
+        <v>2</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="H36" s="6">
+        <v>3</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="H37" s="6">
+        <v>4</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>5</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="H38" s="6">
+        <v>5</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="H39" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="10"/>
+      <c r="H40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="12"/>
+      <c r="J40" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="10"/>
+      <c r="H41" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="12"/>
+      <c r="J41" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="13"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="14"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="28"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="26"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="15"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="29"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="9"/>
+      <c r="H46" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="21"/>
+      <c r="J46" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="23"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="21"/>
+      <c r="C47" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="9"/>
+      <c r="H47" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="21"/>
+      <c r="J47" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="23"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="H48" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="21"/>
+      <c r="J48" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K48" s="23"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="23"/>
+      <c r="H49" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" s="21"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="23"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="H50" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+    </row>
+    <row r="51" spans="1:11" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="H52" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+    </row>
+    <row r="53" spans="1:11" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="H55" s="6">
+        <v>1</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>2</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="H56" s="6">
+        <v>2</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>3</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="11"/>
+      <c r="H57" s="6">
+        <v>3</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="H58" s="6">
+        <v>4</v>
+      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>5</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="H59" s="6">
+        <v>5</v>
+      </c>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="H60" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="13"/>
+      <c r="H61" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" s="12"/>
+      <c r="J61" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" s="13"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="10"/>
+      <c r="H62" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="12"/>
+      <c r="J62" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K62" s="13"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="14"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="28"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="26"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="15"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="29"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="21"/>
+      <c r="C67" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="23"/>
+      <c r="E67" s="9"/>
+      <c r="H67" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I67" s="21"/>
+      <c r="J67" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K67" s="23"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="21"/>
+      <c r="C68" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="23"/>
+      <c r="E68" s="9"/>
+      <c r="H68" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I68" s="21"/>
+      <c r="J68" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68" s="23"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="21"/>
+      <c r="C69" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="23"/>
+      <c r="H69" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I69" s="21"/>
+      <c r="J69" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K69" s="23"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="21"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="23"/>
+      <c r="H70" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I70" s="21"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="23"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="H71" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+    </row>
+    <row r="72" spans="1:11" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="H73" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+    </row>
+    <row r="74" spans="1:11" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
+        <v>1</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="H76" s="6">
+        <v>1</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="6">
+        <v>2</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="H77" s="6">
+        <v>2</v>
+      </c>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
+        <v>3</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="H78" s="6">
+        <v>3</v>
+      </c>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
+        <v>4</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="H79" s="6">
+        <v>4</v>
+      </c>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="6">
+        <v>5</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="H80" s="6">
+        <v>5</v>
+      </c>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="H81" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="13"/>
+      <c r="H82" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" s="12"/>
+      <c r="J82" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82" s="13"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="12"/>
+      <c r="C83" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="13"/>
+      <c r="E83" s="10"/>
+      <c r="H83" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="12"/>
+      <c r="J83" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K83" s="13"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="14"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="28"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="26"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="15"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="29"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="21"/>
+      <c r="C88" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="23"/>
+      <c r="E88" s="9"/>
+      <c r="H88" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I88" s="21"/>
+      <c r="J88" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K88" s="23"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="21"/>
+      <c r="C89" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="23"/>
+      <c r="E89" s="9"/>
+      <c r="H89" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" s="21"/>
+      <c r="J89" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K89" s="23"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="21"/>
+      <c r="C90" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" s="23"/>
+      <c r="E90" s="9"/>
+      <c r="H90" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I90" s="21"/>
+      <c r="J90" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K90" s="23"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="21"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="23"/>
+      <c r="H91" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I91" s="21"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="23"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="H92" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+    </row>
+    <row r="93" spans="1:11" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="H94" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+    </row>
+    <row r="95" spans="1:11" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="6">
+        <v>1</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="H97" s="6">
+        <v>1</v>
+      </c>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="6">
+        <v>2</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="H98" s="6">
+        <v>2</v>
+      </c>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="6">
+        <v>3</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="H99" s="6">
+        <v>3</v>
+      </c>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="6">
+        <v>4</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="H100" s="6">
+        <v>4</v>
+      </c>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="6">
+        <v>5</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="H101" s="6">
+        <v>5</v>
+      </c>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="H102" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="12"/>
+      <c r="C103" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="13"/>
+      <c r="E103" s="10"/>
+      <c r="H103" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I103" s="12"/>
+      <c r="J103" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K103" s="13"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="12"/>
+      <c r="C104" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="13"/>
+      <c r="E104" s="10"/>
+      <c r="H104" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="12"/>
+      <c r="J104" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K104" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="191">
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="H43:K44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="H1:K2"/>
+    <mergeCell ref="A22:D23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="A64:D65"/>
+    <mergeCell ref="H64:K65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="H85:K86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="F1:F1048576"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="A90:B90"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>